--- a/src/assets/zxsj_mb/zxtb_k113_dzts.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k113_dzts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7280"/>
+    <workbookView windowWidth="23040" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="3" r:id="rId1"/>
@@ -38,6 +38,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>方正</t>
     </r>
     <r>
@@ -85,8 +92,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -122,12 +129,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -143,52 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -205,6 +219,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -221,45 +243,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,25 +281,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,73 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,79 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +499,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -522,24 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -557,11 +566,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,145 +595,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,15 +1077,15 @@
   <sheetPr/>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="5.16666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.55555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1111111111111" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.08333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
@@ -1204,52 +1211,52 @@
         <v>13</v>
       </c>
       <c r="D3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O3" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P3" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R3" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S3" s="5">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
